--- a/sample_data/sample_xlsx_data_w_emojis.xlsx
+++ b/sample_data/sample_xlsx_data_w_emojis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/centerforsocialcomplexity/codebase_msemoji/sample_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/centerforsocialcomplexity/codebase_msemoji/emoji_extract/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2AFAE0-BA68-D74F-B41A-54C8167DA5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF694A9-BB53-6B4D-A4E5-00FFFAE87666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{ADBC2D4E-FD6B-0A47-BDCE-BBBFCE8B5E97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>rownum</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Best happy hour! 🍸</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -727,13 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5DB36-7A26-4740-A205-D2DA5D0AB310}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C116"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="78.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -746,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -783,11 +789,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,21 +801,18 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,10 +864,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,10 +886,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,10 +908,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,10 +930,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,10 +941,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,10 +952,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,10 +963,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,10 +974,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,10 +985,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>24</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,10 +996,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,10 +1007,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,10 +1018,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,10 +1040,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1048,10 +1051,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1059,10 +1062,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,10 +1073,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1081,10 +1084,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,10 +1095,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,10 +1106,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,10 +1117,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1136,10 +1139,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1147,10 +1150,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,10 +1161,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,10 +1172,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,10 +1183,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1191,10 +1194,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,10 +1216,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,10 +1227,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1238,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1249,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,10 +1260,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,10 +1271,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,10 +1282,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,10 +1293,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,10 +1304,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,10 +1315,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,10 +1326,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,10 +1337,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,10 +1348,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,10 +1359,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,10 +1370,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,10 +1381,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1392,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1403,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1414,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,10 +1436,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,10 +1447,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,10 +1458,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,10 +1469,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1477,10 +1480,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1488,10 +1491,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1499,10 +1502,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1510,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1521,10 +1524,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1532,10 +1535,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1543,10 +1546,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1554,10 +1557,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C75">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1565,10 +1568,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,10 +1579,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1587,10 +1590,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1601,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1609,10 +1612,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1620,10 +1623,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1631,10 +1634,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,10 +1645,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1653,10 +1656,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1664,10 +1667,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1675,10 +1678,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1686,10 +1689,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,10 +1700,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1708,10 +1711,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1719,10 +1722,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,10 +1733,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1741,10 +1744,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,10 +1755,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,10 +1766,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,10 +1777,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,10 +1788,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,10 +1799,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C97">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,10 +1810,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,10 +1821,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,10 +1832,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C100">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1840,10 +1843,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C101">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,10 +1854,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C102">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,10 +1865,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1873,10 +1876,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C104">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1884,10 +1887,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1895,10 +1898,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1906,10 +1909,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C107">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1917,10 +1920,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1928,10 +1931,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1939,10 +1942,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,10 +1953,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,10 +1964,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,10 +1975,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C113">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,10 +1986,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,10 +1997,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C115">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,9 +2008,42 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="C116">
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119">
         <v>7</v>
       </c>
     </row>

--- a/sample_data/sample_xlsx_data_w_emojis.xlsx
+++ b/sample_data/sample_xlsx_data_w_emojis.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/centerforsocialcomplexity/codebase_msemoji/emoji_extract/sample_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/centerforsocialcomplexity/codebase_msemoji/structural_content_analysis/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF694A9-BB53-6B4D-A4E5-00FFFAE87666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521D0B8-0330-F445-BE39-3E836E114786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{ADBC2D4E-FD6B-0A47-BDCE-BBBFCE8B5E97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_csv_data_w_emojis_utf8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>rownum</t>
   </si>
@@ -39,90 +39,27 @@
     <t>Show your hands panther fans 🤚</t>
   </si>
   <si>
-    <t>so many people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no foolin! ⬇️ He’s not playing. </t>
-  </si>
-  <si>
-    <t>Time for happy hour! Going to Rossi's</t>
-  </si>
-  <si>
     <t>snowtastrophe out there be carefulz 🌨❄️</t>
   </si>
   <si>
-    <t xml:space="preserve"> No Duh🤷🏻‍♂️ Who cares</t>
-  </si>
-  <si>
     <t>This is my fav place 🍜🍲😋 ❤️</t>
   </si>
   <si>
-    <t xml:space="preserve"> 💥UPDATE! 💥 this breaking news just in that </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today!👇👇👇  </t>
-  </si>
-  <si>
-    <t>everyone is so excited to be here at the rally</t>
-  </si>
-  <si>
     <t>☺️ 5 days left and anxiously waiting</t>
   </si>
   <si>
     <t>This place is so good. Best pizza and drinks ever.</t>
   </si>
   <si>
-    <t>😠  Nope!  Not now. Not here 📍someurl</t>
-  </si>
-  <si>
-    <t>Who wants to play ⚽️🏃🏾‍♂️</t>
-  </si>
-  <si>
-    <t>right  🤣 wrong on so many levels!</t>
-  </si>
-  <si>
-    <t>🙄</t>
-  </si>
-  <si>
-    <t>All the people out in the park today is sing of spring. 🏔🌲🌳</t>
-  </si>
-  <si>
-    <t>dirty cars 👉 wash them</t>
-  </si>
-  <si>
     <t>So much work so little time</t>
   </si>
   <si>
-    <t>barbacoa wit suzm chili sauce! So good. So hot!  🌮🌶🥵you got me tony's tacos!</t>
-  </si>
-  <si>
-    <t>If you here for the rally raise your hands for blue 🤚🔵</t>
-  </si>
-  <si>
-    <t>💪hoping he wins 🙏 💪vote red 🙏 💪vote now🙏  🔴</t>
-  </si>
-  <si>
-    <t>She forgot to bring it!!!</t>
-  </si>
-  <si>
-    <t>🚨EMERGENCY ALERT🚨  Weather report flash flooding.</t>
-  </si>
-  <si>
     <t xml:space="preserve">she is going to rock this today 🔥💥🔥 so proud these days ⭐️❤️⭐️  </t>
   </si>
   <si>
-    <t>Get out the Catholic vote today ✝️ ❤️ Vote Blue!🔵</t>
-  </si>
-  <si>
-    <t>Coffee time ☕️🍩</t>
-  </si>
-  <si>
     <t>🚨UPDATE! It's all 💩so not happy 😡🥾🐄</t>
   </si>
   <si>
-    <t>Today!👇👇👇</t>
-  </si>
-  <si>
     <t>We love to celebrate at Rossi! 🍻🥂🎉</t>
   </si>
   <si>
@@ -132,123 +69,51 @@
     <t>there you have it 💨💨 just like that 🤔🤔🤔</t>
   </si>
   <si>
-    <t>👉🏻👉🏻news report. This just in ….. wins in this district!</t>
-  </si>
-  <si>
     <t>🧡💙Let's go panthers!💙🧡</t>
   </si>
   <si>
     <t>Lunch time 😋</t>
   </si>
   <si>
-    <t>WAKE up people</t>
-  </si>
-  <si>
     <t>new day</t>
   </si>
   <si>
-    <t>Yay let go out 👠  👠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">news flash! </t>
-  </si>
-  <si>
     <t>Panthers win! 'Bout time!</t>
   </si>
   <si>
     <t>💥Breaking news!💥 today this is the latest update</t>
   </si>
   <si>
-    <t>👩🏽‍💻🍿👀 seeing this now?</t>
-  </si>
-  <si>
-    <t>😍🤩😍 Oh MY !!   soooooooooo EXCITING 🤪</t>
-  </si>
-  <si>
-    <t>My man bought me 🌹🌹🌹🌹 for each of my boys.</t>
-  </si>
-  <si>
     <t>Awhhhhhh I hate studying 😔📚👎🏻</t>
   </si>
   <si>
     <t>Omg! 😂</t>
   </si>
   <si>
-    <t>This just in. Check this link 👉someurl</t>
-  </si>
-  <si>
-    <t>Black dog music 🎶  best beats in town</t>
-  </si>
-  <si>
     <t>🔁📡🔊 Attention!  🔊you did it.</t>
   </si>
   <si>
-    <t>OMG is that for real 🤭🤭🤭 you have to be tough</t>
-  </si>
-  <si>
-    <t>Vacation time ✈️🏖🏝🏊‍♀️ 🌞🌞</t>
-  </si>
-  <si>
-    <t>Done with my exams 💯</t>
-  </si>
-  <si>
-    <t>My daughter is amazing 😘</t>
-  </si>
-  <si>
-    <t>thank you! 😍😍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That bus better be filled with supportes 😆  🇺🇸vote today   🇺🇸 ⬇️ </t>
-  </si>
-  <si>
     <t>Spring flowers 💐🌷🌸🌹🌻</t>
   </si>
   <si>
-    <t>Click here  👉some url</t>
-  </si>
-  <si>
     <t>BS!!!! 🤬🤬🤬</t>
   </si>
   <si>
     <t>🤣</t>
   </si>
   <si>
-    <t>Too many to count for today. What a great turn out. Thank you everyone.</t>
-  </si>
-  <si>
     <t>All across the board  ☑️   No exceptions!!!    🙌</t>
   </si>
   <si>
     <t>SCORE! 👏🏼</t>
   </si>
   <si>
-    <t>Please do your part and vote today. Vote Blue or Red</t>
-  </si>
-  <si>
-    <t>Whatcha doin today</t>
-  </si>
-  <si>
     <t>So done with this rain. Bring out the sun.</t>
   </si>
   <si>
-    <t>🚨IMPORTANT! 🚨 Go Vote! Today.</t>
-  </si>
-  <si>
-    <t>Thinking of you mom on this special Mother's day. ❤️🥰😘</t>
-  </si>
-  <si>
-    <t>Love the cupcakes at this bakery. Thank you Shula's 🍉🧁</t>
-  </si>
-  <si>
-    <t>🔵 Blue votes count  👉🏽👉🏾🗳</t>
-  </si>
-  <si>
     <t>🤣no way</t>
   </si>
   <si>
-    <t>First snow flakes of the year ❄️☃️</t>
-  </si>
-  <si>
     <t>Go Blue! ⚾️🔷🔶</t>
   </si>
   <si>
@@ -258,18 +123,12 @@
     <t>time to go</t>
   </si>
   <si>
-    <t xml:space="preserve"> 🇺🇸🔴🇳🇱🔴🇺🇸TODAY YOU MUST VOTE  🔴⚪🔵USA!🔴⚪🔵</t>
-  </si>
-  <si>
     <t>🛬 soooo much jetlag 🥴 😴💤</t>
   </si>
   <si>
     <t>What a lovely day 🌞</t>
   </si>
   <si>
-    <t>👉Fake  👉news  👉Fakes</t>
-  </si>
-  <si>
     <t>Black momma and proud.</t>
   </si>
   <si>
@@ -282,75 +141,27 @@
     <t>some days 🤷🏼‍♀️</t>
   </si>
   <si>
-    <t>Go orange and blue! Panthers you can do it 🟠🔵</t>
-  </si>
-  <si>
-    <t>Massive landslide today at the polls!</t>
-  </si>
-  <si>
-    <t>what a jerk🤔 gonna be weird</t>
-  </si>
-  <si>
-    <t>I agree w U  ❤ but for real?</t>
-  </si>
-  <si>
     <t>I am so excited it is completely filled.</t>
   </si>
   <si>
-    <t>It's all fake!</t>
-  </si>
-  <si>
     <t>🚨TRAFFIC ALERT 🚨  Highway 1014 is blocked at Moore Ln. Police are on the scene. 🚗🚔</t>
   </si>
   <si>
-    <t>All my black ladies where you at 👩🏽‍💼 It's time! See you soon ✝️</t>
-  </si>
-  <si>
     <t>I love you 😊</t>
   </si>
   <si>
-    <t>You must go VOTE👉🏾do it</t>
-  </si>
-  <si>
-    <t>This pub is the best 🇬🇧✌🏻</t>
-  </si>
-  <si>
     <t>Outta here ⚾️💫🌏</t>
   </si>
   <si>
     <t>🌹💐 Happy mother's day 💐🌹</t>
   </si>
   <si>
-    <t>Need I say more?</t>
-  </si>
-  <si>
-    <t>At the zoo today 🐼</t>
-  </si>
-  <si>
-    <t>🇺🇸🥰🤗  #VoteRed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love to get snow ice at Rora's. Fruit punch 🍧 the best 😛 </t>
-  </si>
-  <si>
     <t>So much rain 🌧 🏳️‍🌈gonna be a rainbow</t>
   </si>
   <si>
-    <t>And there it is folks - homerun</t>
-  </si>
-  <si>
-    <t>🍸🥃🧊Rossi on the rocks Happy Hour special start at 5 pm Tuesday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold on  ⬅️ It's a repeat  ⬅️ </t>
-  </si>
-  <si>
     <t>😂 gonna be some trouble now</t>
   </si>
   <si>
-    <t>💥Today is the day.</t>
-  </si>
-  <si>
     <t>failed my class now I can finally relax 😎</t>
   </si>
   <si>
@@ -360,9 +171,6 @@
     <t>No more rain 😎</t>
   </si>
   <si>
-    <t>Mi madre! ❤️ Happy Mother's Day!</t>
-  </si>
-  <si>
     <t>Thinking of all you moms today on Mother's Day.</t>
   </si>
   <si>
@@ -372,23 +180,228 @@
     <t>🤣🤣🤣🤣🤣🤣🤣</t>
   </si>
   <si>
-    <t>At shore lake in the park. Another great day on the water 🚣‍♂️🌊</t>
-  </si>
-  <si>
-    <t>Best happy hour! 🍸</t>
-  </si>
-  <si>
-    <t>""</t>
+    <t>Best happy hour! 🍸@user102 http://www.url.com</t>
+  </si>
+  <si>
+    <t>At shore lake in the park. Another great day on the water 🚣‍♂️🌊 http://www.url.com</t>
+  </si>
+  <si>
+    <t>💥Today is the day. http://www.url.com</t>
+  </si>
+  <si>
+    <t>Hold on  ⬅️  http://www.url.com http://www.url.com It's a repeat  ⬅️  http://www.url.com</t>
+  </si>
+  <si>
+    <t>🍸🥃🧊Rossi @user102 on the rocks Happy Hour special start at 5 pm Tuesday. http://www.url.com</t>
+  </si>
+  <si>
+    <t>And there it is folks - homerun http://www.url.com</t>
+  </si>
+  <si>
+    <t>Love to get snow ice at Rora's @user103  Fruit punch 🍧 the best 😛 http://www.url.com</t>
+  </si>
+  <si>
+    <t>Need I say more? @user13</t>
+  </si>
+  <si>
+    <t>At the zoo today 🐼http://www.url.com</t>
+  </si>
+  <si>
+    <t>This pub @user 105 is the best 🇬🇧✌🏻</t>
+  </si>
+  <si>
+    <t>All my black ladies where you at 👩🏽‍💼 It's time! See you soon ✝️ @user63</t>
+  </si>
+  <si>
+    <t>It's all fake! @user1 @user2 @user3</t>
+  </si>
+  <si>
+    <t>I agree w U @user76  ❤ but for real?</t>
+  </si>
+  <si>
+    <t>Massive landslide today at the polls! Https://www.url.com</t>
+  </si>
+  <si>
+    <t>Go orange and blue! @user120 Panthers you can do it 🟠🔵</t>
+  </si>
+  <si>
+    <t>First snow flakes of the year ❄️☃️ https://www.url.com</t>
+  </si>
+  <si>
+    <t>RT @user 97 🔵 Blue votes count  👉🏽👉🏾🗳</t>
+  </si>
+  <si>
+    <t>Love the cupcakes at this bakery. @user121 Thank you Shula's 🍉🧁</t>
+  </si>
+  <si>
+    <t>Thinking of you mom on this special Mother's day. ❤️🥰😘@user67</t>
+  </si>
+  <si>
+    <t>Whatcha doin today @user78</t>
+  </si>
+  <si>
+    <t>Too many to count for today. What a great turn out. @user92 Thank you everyone. #hashtag https://www.url.com</t>
+  </si>
+  <si>
+    <t>Click here  👉https://www.url.com</t>
+  </si>
+  <si>
+    <t>thank you! 😍😍 @user56</t>
+  </si>
+  <si>
+    <t>My daughter is amazing 😘 @user2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done with my exams 💯 </t>
+  </si>
+  <si>
+    <t>This just in. Check this link 👉https://www.url.com</t>
+  </si>
+  <si>
+    <t>Black dog music 🎶  best beats in town @user123 http://www.url.com</t>
+  </si>
+  <si>
+    <t>Coffee time ☕️🍩@user103</t>
+  </si>
+  <si>
+    <t>dirty cars 👉 wash them https://www.url.com @user54</t>
+  </si>
+  <si>
+    <t>All the people out in the @user101 park today is sing of spring 🏔🌲🌳http://www.url.com</t>
+  </si>
+  <si>
+    <t>😠  Nope!  Not now. Not here 📍http://www.url.com</t>
+  </si>
+  <si>
+    <t>@user92 @user14 so many people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @user19 @user42 @user11 no foolin! ⬇️ He’s not playing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @user31 @user22 @user91  💥UPDATE! 💥 this breaking news just in that </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@user36 @user37 @user38 @user39 @user40 Today!👇👇👇  </t>
+  </si>
+  <si>
+    <t>@user2 everyone is so excited to be here at the rally</t>
+  </si>
+  <si>
+    <t>@user54  Who wants to play ⚽️🏃🏾‍♂️ @user92</t>
+  </si>
+  <si>
+    <t>RT @user86 🙄</t>
+  </si>
+  <si>
+    <t>@user94 barbacoa wit suzm chili sauce! So good. So hot!  🌮🌶🥵you got me tony's tacos!</t>
+  </si>
+  <si>
+    <t>RT @user19 @user42 @user11 If you here for the rally raise your hands for blue 🤚🔵</t>
+  </si>
+  <si>
+    <t>RT @user92 💪hoping he wins 🙏 💪vote red 🙏 💪vote now🙏  🔴</t>
+  </si>
+  <si>
+    <t>@user63 She forgot to bring it!!!</t>
+  </si>
+  <si>
+    <t>RT @user31 @user22 @user91 🚨EMERGENCY ALERT🚨  Weather report flash flooding.</t>
+  </si>
+  <si>
+    <t>RT @user49 Get out the Catholic vote today ✝️ ❤️ Vote Blue!🔵</t>
+  </si>
+  <si>
+    <t>@user40 @user41 @user42 @user43 @user44 Today!👇👇👇</t>
+  </si>
+  <si>
+    <t>RT @user85 👉🏻👉🏻news report. This just in ….. wins in this district!</t>
+  </si>
+  <si>
+    <t>RT @user85 WAKE up people</t>
+  </si>
+  <si>
+    <t>@user61 👩🏽‍💻🍿👀 seeing this now?</t>
+  </si>
+  <si>
+    <t>RT @user13 😍🤩😍 Oh MY !!   soooooooooo EXCITING 🤪</t>
+  </si>
+  <si>
+    <t>RT @user85 That bus better be filled with supportes 😆  🇺🇸vote today   🇺🇸 ⬇️  @user34</t>
+  </si>
+  <si>
+    <t>RT @user85 Please do your part and vote today. Vote Blue or Red</t>
+  </si>
+  <si>
+    <t>RT @user85 🚨IMPORTANT! 🚨 Go Vote! Today.</t>
+  </si>
+  <si>
+    <t>RT @user85  🇺🇸🔴🇳🇱🔴🇺🇸TODAY YOU MUST VOTE  🔴⚪🔵USA!🔴⚪🔵</t>
+  </si>
+  <si>
+    <t>RT @user85 👉Fake  👉news  👉Fakes https://www.url.com</t>
+  </si>
+  <si>
+    <t>@user50 @user51 @user52 @user53 @user54 Today!👇👇👇</t>
+  </si>
+  <si>
+    <t>RT @user85 You must go VOTE👉🏾do it @user 3 http://www.url.com</t>
+  </si>
+  <si>
+    <t>RT @user85 🇺🇸🥰🤗  #VoteRed</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Time for happy hour! Going to Rossi's @user103 https://www.url.com</t>
+  </si>
+  <si>
+    <t>RT @here @there @everywhere #hashtag #emojitest is all 4️⃣ ❤️ more 🇦🇺 👨🏾‍👩🏾‍👧🏾‍👦🏾txt and more!!! https://www.url.com 🧵👨🏾‍👩🏾‍👧🏾‍👦🏾👩🏾‍💻👪🏿 🗳️🗳 😃 🟠https://www.url.com</t>
+  </si>
+  <si>
+    <t>RT @user89 Mi madre! ❤️ Happy Mother's Day!</t>
+  </si>
+  <si>
+    <t>RT @user9 No Duh🤷🏻‍♂️ Who cares</t>
+  </si>
+  <si>
+    <t>RT @user9  right  🤣 wrong on so many levels!</t>
+  </si>
+  <si>
+    <t>RT @user9 My man bought me 🌹🌹🌹🌹 for each of my boys.</t>
+  </si>
+  <si>
+    <t>RT @user9 OMG is that for real 🤭🤭🤭 you have to be tough</t>
+  </si>
+  <si>
+    <t>RT @user9 what a jerk🤔 gonna be weird</t>
+  </si>
+  <si>
+    <t>Yay let go out!!! 👠  👠</t>
+  </si>
+  <si>
+    <t>news flash!  http://www.url.com</t>
+  </si>
+  <si>
+    <t>Vacation time! ✈️🏖🏝🏊‍♀️ 🌞🌞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,8 +427,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,13 +746,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5DB36-7A26-4740-A205-D2DA5D0AB310}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -779,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -789,8 +803,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>108</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -801,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -820,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -831,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -842,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -864,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -875,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>33</v>
@@ -886,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -897,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>52</v>
@@ -908,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>62</v>
@@ -919,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>72</v>
@@ -930,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>85</v>
@@ -941,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>89</v>
@@ -952,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -963,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -974,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>88</v>
@@ -985,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -996,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1007,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1018,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1029,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1040,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -1051,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -1062,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1073,7 +1087,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -1084,7 +1098,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1095,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>66</v>
@@ -1106,7 +1120,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>74</v>
@@ -1117,7 +1131,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>91</v>
@@ -1128,7 +1142,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1139,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1150,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1161,7 +1175,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1172,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1183,7 +1197,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1194,10 +1208,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1205,7 +1219,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1216,7 +1230,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1227,7 +1241,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1238,7 +1252,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -1249,7 +1263,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -1260,10 +1274,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>17</v>
+        <v>114</v>
+      </c>
+      <c r="C48" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,7 +1285,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -1282,10 +1296,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,7 +1307,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>31</v>
@@ -1304,7 +1318,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>34</v>
@@ -1315,7 +1329,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -1326,10 +1340,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>52</v>
+        <v>115</v>
+      </c>
+      <c r="C54" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,10 +1351,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>69</v>
+        <v>119</v>
+      </c>
+      <c r="C55" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1362,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>76</v>
@@ -1359,7 +1373,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <v>92</v>
@@ -1370,7 +1384,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -1381,7 +1395,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1392,7 +1406,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>24</v>
@@ -1403,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>88</v>
@@ -1414,10 +1428,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,7 +1439,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1436,7 +1450,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1447,7 +1461,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1458,7 +1472,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1469,7 +1483,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1480,7 +1494,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1491,7 +1505,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -1502,7 +1516,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -1524,7 +1538,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <v>16</v>
@@ -1535,7 +1549,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>18</v>
@@ -1546,7 +1560,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>20</v>
@@ -1557,7 +1571,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>24</v>
@@ -1568,10 +1582,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1">
         <v>74</v>
-      </c>
-      <c r="C76">
-        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1579,7 +1593,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C77">
         <v>34</v>
@@ -1590,7 +1604,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>44</v>
@@ -1601,7 +1615,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C79">
         <v>53</v>
@@ -1612,7 +1626,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -1623,7 +1637,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>83</v>
@@ -1634,7 +1648,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>88</v>
@@ -1645,7 +1659,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>92</v>
@@ -1656,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -1667,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1678,7 +1692,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1689,7 +1703,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1700,7 +1714,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1711,7 +1725,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -1722,10 +1736,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="C90" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1733,7 +1747,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -1744,7 +1758,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -1755,7 +1769,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -1766,7 +1780,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C94">
         <v>11</v>
@@ -1777,7 +1791,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C95">
         <v>13</v>
@@ -1788,7 +1802,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C96">
         <v>16</v>
@@ -1799,7 +1813,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -1810,7 +1824,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -1821,7 +1835,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C99">
         <v>32</v>
@@ -1832,7 +1846,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -1843,7 +1857,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C101">
         <v>52</v>
@@ -1854,7 +1868,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -1865,7 +1879,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C103">
         <v>61</v>
@@ -1876,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C104">
         <v>71</v>
@@ -1887,7 +1901,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C105">
         <v>83</v>
@@ -1898,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C106">
         <v>89</v>
@@ -1909,7 +1923,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C107">
         <v>99</v>
@@ -1920,7 +1934,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -1931,7 +1945,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -1942,7 +1956,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C110">
         <v>34</v>
@@ -1953,7 +1967,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -1964,7 +1978,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C112">
         <v>13</v>
@@ -1975,10 +1989,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="C113" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1997,7 +2011,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -2008,7 +2022,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <v>36</v>
@@ -2019,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -2030,7 +2044,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C118">
         <v>52</v>
@@ -2041,7 +2055,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C119">
         <v>7</v>

--- a/sample_data/sample_xlsx_data_w_emojis.xlsx
+++ b/sample_data/sample_xlsx_data_w_emojis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/centerforsocialcomplexity/codebase_msemoji/structural_content_analysis/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521D0B8-0330-F445-BE39-3E836E114786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1AA76D-E47B-024E-8437-047FA050353A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{ADBC2D4E-FD6B-0A47-BDCE-BBBFCE8B5E97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>rownum</t>
   </si>
@@ -36,9 +36,6 @@
     <t>userid</t>
   </si>
   <si>
-    <t>Show your hands panther fans 🤚</t>
-  </si>
-  <si>
     <t>snowtastrophe out there be carefulz 🌨❄️</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t xml:space="preserve">she is going to rock this today 🔥💥🔥 so proud these days ⭐️❤️⭐️  </t>
   </si>
   <si>
-    <t>🚨UPDATE! It's all 💩so not happy 😡🥾🐄</t>
-  </si>
-  <si>
     <t>We love to celebrate at Rossi! 🍻🥂🎉</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>🤣no way</t>
   </si>
   <si>
-    <t>Go Blue! ⚾️🔷🔶</t>
-  </si>
-  <si>
     <t>Music list  ✅ swift record ✅ mars single ✅ grande white diamond ✅ west tunes</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>Massive landslide today at the polls! Https://www.url.com</t>
   </si>
   <si>
-    <t>Go orange and blue! @user120 Panthers you can do it 🟠🔵</t>
-  </si>
-  <si>
     <t>First snow flakes of the year ❄️☃️ https://www.url.com</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>@user94 barbacoa wit suzm chili sauce! So good. So hot!  🌮🌶🥵you got me tony's tacos!</t>
   </si>
   <si>
-    <t>RT @user19 @user42 @user11 If you here for the rally raise your hands for blue 🤚🔵</t>
-  </si>
-  <si>
     <t>RT @user92 💪hoping he wins 🙏 💪vote red 🙏 💪vote now🙏  🔴</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>RT @user31 @user22 @user91 🚨EMERGENCY ALERT🚨  Weather report flash flooding.</t>
   </si>
   <si>
-    <t>RT @user49 Get out the Catholic vote today ✝️ ❤️ Vote Blue!🔵</t>
-  </si>
-  <si>
     <t>@user40 @user41 @user42 @user43 @user44 Today!👇👇👇</t>
   </si>
   <si>
@@ -363,9 +345,6 @@
     <t>RT @user89 Mi madre! ❤️ Happy Mother's Day!</t>
   </si>
   <si>
-    <t>RT @user9 No Duh🤷🏻‍♂️ Who cares</t>
-  </si>
-  <si>
     <t>RT @user9  right  🤣 wrong on so many levels!</t>
   </si>
   <si>
@@ -385,6 +364,24 @@
   </si>
   <si>
     <t>Vacation time! ✈️🏖🏝🏊‍♀️ 🌞🌞</t>
+  </si>
+  <si>
+    <t>Show your 🤚 hands panther fans 🤚</t>
+  </si>
+  <si>
+    <t>RT @user19 @user42 @user11 If you here for the rally 🤚🔵 raise your hands for blue 🤚🔵</t>
+  </si>
+  <si>
+    <t>RT @user49 Get out the Catholic  ✝️ ❤️  vote today🔵Vote Blue!🔵</t>
+  </si>
+  <si>
+    <t>🚨UPDATE! 🚨 It's all 💩so not happy 😡🥾🐄</t>
+  </si>
+  <si>
+    <t>🔷Go Blue! ⚾️🔷🔶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 🟠🔵Go orange and blue! 🟠🔵 @user120 Panthers you can do it 🟠🔵</t>
   </si>
 </sst>
 </file>
@@ -746,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5DB36-7A26-4740-A205-D2DA5D0AB310}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -793,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -804,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -815,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -834,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -845,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -856,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>89</v>
@@ -867,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -878,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -889,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>33</v>
@@ -900,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -911,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>52</v>
@@ -922,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>62</v>
@@ -933,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>72</v>
@@ -944,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <v>85</v>
@@ -955,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>89</v>
@@ -966,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -977,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -988,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>88</v>
@@ -999,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -1010,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1021,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1032,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1043,7 +1040,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1054,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -1065,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -1076,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1087,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -1098,7 +1095,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1109,7 +1106,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>66</v>
@@ -1120,7 +1117,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>74</v>
@@ -1131,7 +1128,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>91</v>
@@ -1142,7 +1139,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1153,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1164,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1175,7 +1172,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1186,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1197,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1208,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>74</v>
@@ -1219,7 +1216,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1230,7 +1227,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1241,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1252,7 +1249,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -1263,7 +1260,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -1274,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1">
         <v>89</v>
@@ -1285,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -1296,7 +1293,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>74</v>
@@ -1307,7 +1304,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>31</v>
@@ -1318,7 +1315,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>34</v>
@@ -1329,7 +1326,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -1340,7 +1337,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1">
         <v>89</v>
@@ -1351,7 +1348,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1">
         <v>74</v>
@@ -1362,7 +1359,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C56">
         <v>76</v>
@@ -1373,7 +1370,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>92</v>
@@ -1384,7 +1381,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -1395,7 +1392,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1406,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>24</v>
@@ -1417,7 +1414,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>88</v>
@@ -1428,7 +1425,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
         <v>74</v>
@@ -1439,7 +1436,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1450,7 +1447,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1461,7 +1458,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1472,7 +1469,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1483,7 +1480,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1494,7 +1491,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1505,7 +1502,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -1516,7 +1513,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -1527,7 +1524,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -1538,7 +1535,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72">
         <v>16</v>
@@ -1549,7 +1546,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <v>18</v>
@@ -1560,7 +1557,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>20</v>
@@ -1571,7 +1568,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75">
         <v>24</v>
@@ -1582,7 +1579,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -1593,7 +1590,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>34</v>
@@ -1604,7 +1601,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>44</v>
@@ -1615,7 +1612,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>53</v>
@@ -1626,7 +1623,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -1637,7 +1634,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C81">
         <v>83</v>
@@ -1648,7 +1645,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>88</v>
@@ -1659,7 +1656,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>92</v>
@@ -1670,7 +1667,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -1681,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1692,7 +1689,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1703,7 +1700,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1714,7 +1711,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1725,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -1736,7 +1733,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C90" s="1">
         <v>89</v>
@@ -1747,7 +1744,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -1758,7 +1755,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -1769,7 +1766,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -1780,7 +1777,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C94">
         <v>11</v>
@@ -1791,7 +1788,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C95">
         <v>13</v>
@@ -1802,7 +1799,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>16</v>
@@ -1813,7 +1810,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -1824,7 +1821,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -1835,7 +1832,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C99">
         <v>32</v>
@@ -1846,7 +1843,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -1857,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C101">
         <v>52</v>
@@ -1868,7 +1865,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -1879,7 +1876,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>61</v>
@@ -1890,7 +1887,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C104">
         <v>71</v>
@@ -1901,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C105">
         <v>83</v>
@@ -1912,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C106">
         <v>89</v>
@@ -1923,7 +1920,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C107">
         <v>99</v>
@@ -1934,7 +1931,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -1945,7 +1942,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -1956,7 +1953,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C110">
         <v>34</v>
@@ -1967,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -1978,7 +1975,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C112">
         <v>13</v>
@@ -1989,7 +1986,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C113" s="1">
         <v>89</v>
@@ -2000,7 +1997,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -2011,7 +2008,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -2022,7 +2019,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C116">
         <v>36</v>
@@ -2033,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -2044,7 +2041,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C118">
         <v>52</v>
@@ -2055,7 +2052,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C119">
         <v>7</v>
